--- a/biology/Botanique/Frederick_Ernest_Weiss/Frederick_Ernest_Weiss.xlsx
+++ b/biology/Botanique/Frederick_Ernest_Weiss/Frederick_Ernest_Weiss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frederick Ernest Weiss (2 novembre 1865 - 7 janvier 1953) est un botaniste britannique. Il reçoit la médaille d'honneur de Victoria en 1947[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederick Ernest Weiss (2 novembre 1865 - 7 janvier 1953) est un botaniste britannique. Il reçoit la médaille d'honneur de Victoria en 1947.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Weiss fait ses études à l'Owens College (plus tard l'Université Victoria de Manchester) et obtient un doctorat en botanique (DSc) de l'Université de Londres en juillet 1902[2].
-Weiss est professeur de botanique à l'Université Victoria de Manchester. En 1913, Weiss succède à Sir Alfred Hopkinson au poste de vice-chancelier, d'abord à titre temporaire jusqu'à ce qu'un candidat convenable soit trouvé. Il continue comme professeur de botanique pendant son mandat de vice-chancelier et en 1915, il est remplacé par Sir Henry Alexander Miers, minéralogiste et ancien directeur de l'Université de Londres (1908-1915)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Weiss fait ses études à l'Owens College (plus tard l'Université Victoria de Manchester) et obtient un doctorat en botanique (DSc) de l'Université de Londres en juillet 1902.
+Weiss est professeur de botanique à l'Université Victoria de Manchester. En 1913, Weiss succède à Sir Alfred Hopkinson au poste de vice-chancelier, d'abord à titre temporaire jusqu'à ce qu'un candidat convenable soit trouvé. Il continue comme professeur de botanique pendant son mandat de vice-chancelier et en 1915, il est remplacé par Sir Henry Alexander Miers, minéralogiste et ancien directeur de l'Université de Londres (1908-1915).
 </t>
         </is>
       </c>
